--- a/Document/枕返し＿プレイヤーキャラクター仕様書 .xlsx
+++ b/Document/枕返し＿プレイヤーキャラクター仕様書 .xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc1df7000a95468/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Desktop\枕返し仕様書\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9DDBBB2A-D3E9-4F91-A6FC-3606823D57CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ED32D32-EB85-44DD-821C-8FBA9951F905}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4AF25C-6E13-4D0D-8DC2-DE55E0164A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
     <sheet name="主人公基本概要" sheetId="2" r:id="rId2"/>
     <sheet name="表示と動作について" sheetId="3" r:id="rId3"/>
-    <sheet name="主人公SE詳細" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -127,9 +126,6 @@
     <t>前を向いている</t>
   </si>
   <si>
-    <t>歩いている音（子どもの姿）</t>
-  </si>
-  <si>
     <t>↗、→、↘</t>
   </si>
   <si>
@@ -277,40 +273,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>スガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>歩いている音（大人の姿）</t>
-    <rPh sb="7" eb="9">
-      <t>オトナ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要音について</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>秒数</t>
-    <rPh sb="0" eb="2">
-      <t>ビョウスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>イメージ音源</t>
-    <rPh sb="4" eb="6">
-      <t>オンゲン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -398,22 +360,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力時間によって変化（予定）</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -596,12 +542,103 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>入力時間によって変化※遅くなることあり（エネミー仕様参照）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>遅くなることあり（エネミー仕様参照）</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動速度の仕様一部変更（エネミー仕様書参照有り）</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イチブヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SE詳細変更</t>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音源仕様書に内容移行</t>
+    <rPh sb="0" eb="2">
+      <t>オンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -651,8 +688,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,12 +734,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -696,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -729,71 +788,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -803,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -816,19 +810,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1120,10 +1112,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1184,10 +1176,10 @@
         <v>44842</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,21 +1187,21 @@
         <v>44842</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>44842</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>82</v>
+      <c r="C7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,10 +1209,32 @@
         <v>44848</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>44854</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21">
+        <v>44854</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1252,7 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1298,8 +1312,8 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="21" t="s">
-        <v>83</v>
+      <c r="C8" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -1317,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -1335,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
@@ -1351,7 +1365,7 @@
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
@@ -1367,9 +1381,11 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
@@ -1391,10 +1407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:M37"/>
+  <dimension ref="B1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1420,7 @@
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="6" max="6" width="61.33203125" customWidth="1"/>
     <col min="7" max="7" width="30.77734375" customWidth="1"/>
     <col min="8" max="14" width="3.109375" customWidth="1"/>
     <col min="15" max="21" width="12" customWidth="1"/>
@@ -1417,11 +1433,11 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>81</v>
+      <c r="B3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -1453,7 +1469,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -1466,36 +1482,36 @@
     </row>
     <row r="6" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -1503,10 +1519,10 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1519,19 +1535,19 @@
     </row>
     <row r="9" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1540,41 +1556,41 @@
     </row>
     <row r="10" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>28</v>
@@ -1590,35 +1606,35 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>48</v>
+      <c r="B13" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="H15" s="21" t="s">
-        <v>80</v>
+      <c r="H15" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>65</v>
+      <c r="B16" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1654,7 +1670,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -1663,36 +1679,36 @@
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1704,10 +1720,10 @@
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1720,58 +1736,58 @@
     </row>
     <row r="22" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3">
         <v>4</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -1787,27 +1803,27 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>48</v>
+      <c r="B26" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:13" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
-        <v>49</v>
+      <c r="B29" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,16 +1834,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,56 +1854,56 @@
         <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,138 +1911,87 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="B2:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/枕返し＿プレイヤーキャラクター仕様書 .xlsx
+++ b/Document/枕返し＿プレイヤーキャラクター仕様書 .xlsx
@@ -5,25 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc1df7000a95468/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Desktop\枕返し仕様書\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9DDBBB2A-D3E9-4F91-A6FC-3606823D57CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ED32D32-EB85-44DD-821C-8FBA9951F905}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E9E0F-C280-4673-AA92-203326E98DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4524" yWindow="2808" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
     <sheet name="主人公基本概要" sheetId="2" r:id="rId2"/>
     <sheet name="表示と動作について" sheetId="3" r:id="rId3"/>
-    <sheet name="主人公SE詳細" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>更新履歴</t>
   </si>
@@ -125,9 +124,6 @@
   </si>
   <si>
     <t>前を向いている</t>
-  </si>
-  <si>
-    <t>歩いている音（子どもの姿）</t>
   </si>
   <si>
     <t>↗、→、↘</t>
@@ -277,40 +273,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>スガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>歩いている音（大人の姿）</t>
-    <rPh sb="7" eb="9">
-      <t>オトナ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要音について</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>秒数</t>
-    <rPh sb="0" eb="2">
-      <t>ビョウスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>イメージ音源</t>
-    <rPh sb="4" eb="6">
-      <t>オンゲン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -593,6 +555,26 @@
     <t>プログラマーにお任せ</t>
     <rPh sb="8" eb="9">
       <t>マカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音源を音源仕様書に変更</t>
+    <rPh sb="0" eb="2">
+      <t>オンゲン</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>オンゲンシヨウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -652,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,12 +651,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -696,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -729,71 +705,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -803,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -816,19 +727,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1120,10 +1025,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1184,10 +1089,10 @@
         <v>44842</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,21 +1100,21 @@
         <v>44842</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>44842</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,9 +1122,20 @@
         <v>44848</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>44862</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D9" s="15" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1237,7 +1153,7 @@
   </sheetPr>
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1298,8 +1214,8 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="21" t="s">
-        <v>83</v>
+      <c r="C8" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -1317,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -1335,7 +1251,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
@@ -1351,7 +1267,7 @@
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
@@ -1367,7 +1283,7 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -1393,7 +1309,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -1417,11 +1333,11 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>81</v>
+      <c r="B3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -1453,7 +1369,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -1466,36 +1382,36 @@
     </row>
     <row r="6" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -1503,10 +1419,10 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1519,19 +1435,19 @@
     </row>
     <row r="9" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1540,41 +1456,41 @@
     </row>
     <row r="10" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>28</v>
@@ -1590,35 +1506,35 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>48</v>
+      <c r="B13" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="H15" s="21" t="s">
-        <v>80</v>
+      <c r="H15" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>65</v>
+      <c r="B16" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1654,7 +1570,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -1663,36 +1579,36 @@
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1704,10 +1620,10 @@
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1720,58 +1636,58 @@
     </row>
     <row r="22" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3">
         <v>4</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -1787,27 +1703,27 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>48</v>
+      <c r="B26" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:13" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
-        <v>49</v>
+      <c r="B29" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,16 +1734,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,56 +1754,56 @@
         <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,79 +1811,79 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1975,58 +1891,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="B2:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/枕返し＿プレイヤーキャラクター仕様書 .xlsx
+++ b/Document/枕返し＿プレイヤーキャラクター仕様書 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Desktop\枕返し仕様書\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E9E0F-C280-4673-AA92-203326E98DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6159828B-3EE3-4F00-8725-6AF00065C7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4524" yWindow="2808" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
   <si>
     <t>更新履歴</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>右を向いている</t>
-  </si>
-  <si>
-    <t>斜め移動は横向き</t>
   </si>
   <si>
     <t>↖、←、↙</t>
@@ -575,6 +572,65 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右斜め前を向いている</t>
+    <rPh sb="1" eb="2">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左斜め前を向いている</t>
+    <rPh sb="1" eb="2">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斜め移動は横向き、斜め前のイメージ</t>
+    <rPh sb="9" eb="10">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一部表記修正</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プレイヤーキャラの表記変更</t>
+    </r>
+    <rPh sb="9" eb="13">
+      <t>ヒョウキヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1025,10 +1081,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1089,10 +1145,10 @@
         <v>44842</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,10 +1156,10 @@
         <v>44842</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1111,10 +1167,10 @@
         <v>44842</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,10 +1178,10 @@
         <v>44848</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1133,10 +1189,21 @@
         <v>44862</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>88</v>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>44887</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1220,7 @@
   </sheetPr>
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +1282,7 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -1233,7 +1300,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -1251,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
@@ -1267,7 +1334,7 @@
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
@@ -1283,7 +1350,7 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -1309,8 +1376,8 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1334,10 +1401,10 @@
     </row>
     <row r="3" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -1369,7 +1436,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -1384,34 +1451,34 @@
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
+      <c r="C6" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
+      <c r="F6" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
+      <c r="F7" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -1419,10 +1486,10 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1435,19 +1502,19 @@
     </row>
     <row r="9" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1456,41 +1523,41 @@
     </row>
     <row r="10" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>28</v>
@@ -1507,34 +1574,34 @@
     </row>
     <row r="13" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H15" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1570,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -1585,30 +1652,30 @@
         <v>35</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>36</v>
+      <c r="F19" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>36</v>
+      <c r="F20" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1620,10 +1687,10 @@
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1636,58 +1703,58 @@
     </row>
     <row r="22" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3">
         <v>4</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -1704,26 +1771,26 @@
     </row>
     <row r="26" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:13" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1734,16 +1801,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1754,16 +1821,16 @@
         <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,36 +1841,36 @@
         <v>35</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,79 +1878,79 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
